--- a/resources/Filtered.xlsx
+++ b/resources/Filtered.xlsx
@@ -10,19 +10,22 @@
     <sheet name="Filtered" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Filtered!$A$1:$A$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Filtered!$A$1:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -366,50 +369,68 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>42370</v>
       </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>42371</v>
       </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>42372</v>
       </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>SUBTOTAL(9,C2:C4)</f>
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A10">
+  <autoFilter ref="A1:C4">
     <filterColumn colId="0">
-      <filters blank="1">
+      <filters>
         <filter val="1"/>
         <filter val="3"/>
       </filters>
